--- a/documents/設計書.xlsx
+++ b/documents/設計書.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\project\portfolio\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B49612-C58E-429D-9B3B-AF63C0CD4239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E57BA6-6C87-4579-AED1-BD781952C5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{F5AA50B3-5D52-4480-8308-869CA1560B05}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブルパラメータ表" sheetId="1" r:id="rId1"/>
     <sheet name="エンドポイント" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="入力必須項目" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">エンドポイント!$C$2:$G$2</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="134">
   <si>
     <t>ON　UPDATE　CURRENT_TIMESTAMP</t>
     <phoneticPr fontId="1"/>
@@ -448,6 +448,263 @@
   </si>
   <si>
     <t>サブドメイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目タイプ</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCHEDULE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEMPORALY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PERSISTENT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始日</t>
+    <rPh sb="0" eb="3">
+      <t>カイシビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了日</t>
+    <rPh sb="0" eb="3">
+      <t>シュウリョウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始時刻</t>
+    <rPh sb="0" eb="4">
+      <t>カイシジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了時刻</t>
+    <rPh sb="0" eb="4">
+      <t>シュウリョウジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>繰り返しルール</t>
+    <rPh sb="0" eb="1">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期値=today</t>
+    <rPh sb="0" eb="3">
+      <t>ショキチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必須</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>任意</t>
+    <rPh sb="0" eb="2">
+      <t>ニンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重要度</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウヨウド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>繰り返しルール項目</t>
+    <rPh sb="0" eb="1">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユースケース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毎年x日</t>
+    <rPh sb="0" eb="2">
+      <t>マイトシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毎週水日</t>
+    <rPh sb="0" eb="2">
+      <t>マイシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毎月第三火曜日</t>
+    <rPh sb="0" eb="7">
+      <t>マイツキダイサンカヨウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毎月20日</t>
+    <rPh sb="0" eb="2">
+      <t>マイツキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>n日おき</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>freq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>byweekday</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bymonthday</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bysetpos</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YEARLY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WEEKLY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MONTHLY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DAILY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二週間おき</t>
+    <rPh sb="0" eb="3">
+      <t>ニシュウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二か月おき第三火曜日</t>
+    <rPh sb="0" eb="1">
+      <t>ニ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ダイサン</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>カヨウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>interval</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WE,SU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>count※</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(○)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(○)は出はするけど無意味なもの</t>
+    <rPh sb="4" eb="5">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ムイミ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -492,12 +749,92 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -506,12 +843,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -523,6 +857,42 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -841,7 +1211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F6640C-74EA-46A4-8CA8-0D4D36FE8229}">
   <dimension ref="A2:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -853,30 +1223,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B3" t="s">
@@ -894,7 +1264,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="1"/>
+      <c r="A4" s="5"/>
       <c r="B4" t="s">
         <v>47</v>
       </c>
@@ -910,7 +1280,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="1"/>
+      <c r="A5" s="5"/>
       <c r="B5" t="s">
         <v>46</v>
       </c>
@@ -926,7 +1296,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="1"/>
+      <c r="A6" s="5"/>
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -942,7 +1312,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="1"/>
+      <c r="A7" s="5"/>
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -961,7 +1331,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B8" t="s">
@@ -982,7 +1352,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="1"/>
+      <c r="A9" s="5"/>
       <c r="B9" t="s">
         <v>40</v>
       </c>
@@ -998,7 +1368,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="1"/>
+      <c r="A10" s="5"/>
       <c r="B10" t="s">
         <v>38</v>
       </c>
@@ -1014,7 +1384,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="1"/>
+      <c r="A11" s="5"/>
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -1030,7 +1400,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="1"/>
+      <c r="A12" s="5"/>
       <c r="B12" t="s">
         <v>3</v>
       </c>
@@ -1049,7 +1419,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B13" t="s">
@@ -1067,7 +1437,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="1"/>
+      <c r="A14" s="5"/>
       <c r="B14" t="s">
         <v>36</v>
       </c>
@@ -1086,7 +1456,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="1"/>
+      <c r="A15" s="5"/>
       <c r="B15" t="s">
         <v>35</v>
       </c>
@@ -1099,7 +1469,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="1"/>
+      <c r="A16" s="5"/>
       <c r="B16" t="s">
         <v>34</v>
       </c>
@@ -1115,7 +1485,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="1"/>
+      <c r="A17" s="5"/>
       <c r="B17" t="s">
         <v>32</v>
       </c>
@@ -1131,14 +1501,14 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="1"/>
+      <c r="A18" s="5"/>
       <c r="B18" t="s">
         <v>30</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>29221</v>
       </c>
       <c r="F18" t="b">
@@ -1147,14 +1517,14 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="1"/>
+      <c r="A19" s="5"/>
       <c r="B19" t="s">
         <v>29</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>2958465</v>
       </c>
       <c r="F19" t="b">
@@ -1163,7 +1533,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="1"/>
+      <c r="A20" s="5"/>
       <c r="B20" t="s">
         <v>28</v>
       </c>
@@ -1179,7 +1549,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="1"/>
+      <c r="A21" s="5"/>
       <c r="B21" t="s">
         <v>27</v>
       </c>
@@ -1195,7 +1565,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="1"/>
+      <c r="A22" s="5"/>
       <c r="B22" t="s">
         <v>25</v>
       </c>
@@ -1211,7 +1581,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="1"/>
+      <c r="A23" s="5"/>
       <c r="B23" t="s">
         <v>23</v>
       </c>
@@ -1227,7 +1597,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24" s="1"/>
+      <c r="A24" s="5"/>
       <c r="B24" t="s">
         <v>4</v>
       </c>
@@ -1243,7 +1613,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A25" s="1"/>
+      <c r="A25" s="5"/>
       <c r="B25" t="s">
         <v>3</v>
       </c>
@@ -1262,7 +1632,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B26" t="s">
@@ -1280,14 +1650,14 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" s="1"/>
+      <c r="A27" s="5"/>
       <c r="B27" t="s">
         <v>19</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F27" t="b">
@@ -1299,14 +1669,14 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" s="1"/>
+      <c r="A28" s="5"/>
       <c r="B28" t="s">
         <v>16</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="D28" s="5"/>
       <c r="F28" t="b">
         <f>FALSE()</f>
         <v>0</v>
@@ -1316,7 +1686,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A29" s="1"/>
+      <c r="A29" s="5"/>
       <c r="B29" t="s">
         <v>4</v>
       </c>
@@ -1332,7 +1702,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A30" s="1"/>
+      <c r="A30" s="5"/>
       <c r="B30" t="s">
         <v>3</v>
       </c>
@@ -1351,7 +1721,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B31" t="s">
@@ -1369,7 +1739,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A32" s="1"/>
+      <c r="A32" s="5"/>
       <c r="B32" t="s">
         <v>11</v>
       </c>
@@ -1388,7 +1758,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A33" s="1"/>
+      <c r="A33" s="5"/>
       <c r="B33" t="s">
         <v>7</v>
       </c>
@@ -1402,7 +1772,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A34" s="1"/>
+      <c r="A34" s="5"/>
       <c r="B34" t="s">
         <v>6</v>
       </c>
@@ -1415,7 +1785,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A35" s="1"/>
+      <c r="A35" s="5"/>
       <c r="B35" t="s">
         <v>4</v>
       </c>
@@ -1431,7 +1801,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A36" s="1"/>
+      <c r="A36" s="5"/>
       <c r="B36" t="s">
         <v>3</v>
       </c>
@@ -1480,28 +1850,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1509,7 +1879,7 @@
       <c r="B3" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>83</v>
       </c>
       <c r="D3" t="s">
@@ -1532,7 +1902,7 @@
       <c r="B4" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>83</v>
       </c>
       <c r="D4" t="s">
@@ -1552,7 +1922,7 @@
       <c r="B5" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>80</v>
       </c>
       <c r="D5" t="s">
@@ -1572,7 +1942,7 @@
       <c r="B6" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>80</v>
       </c>
       <c r="D6" t="s">
@@ -1592,7 +1962,7 @@
       <c r="B7" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>80</v>
       </c>
       <c r="D7" t="s">
@@ -1612,7 +1982,7 @@
       <c r="B8" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D8" t="s">
@@ -1632,7 +2002,7 @@
       <c r="B9" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D9" t="s">
@@ -1769,14 +2139,367 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471F7AC9-62E6-4057-A388-6B3D7CE3DF00}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I15"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="8" max="8" width="13.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B2" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B3" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B4" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I4" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B5" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B8" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B9" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B11" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9">
+        <v>3</v>
+      </c>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B12" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9">
+        <v>20</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B13" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B14" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B15" s="8"/>
+      <c r="C15" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B16" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12">
+        <v>2</v>
+      </c>
+      <c r="G16" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B18" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B19" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B20" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B21" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B22" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B23" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/設計書.xlsx
+++ b/documents/設計書.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\project\portfolio\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E57BA6-6C87-4579-AED1-BD781952C5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BF3BA6-FE78-490B-8854-26B00B87F3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{F5AA50B3-5D52-4480-8308-869CA1560B05}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{F5AA50B3-5D52-4480-8308-869CA1560B05}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブルパラメータ表" sheetId="1" r:id="rId1"/>
     <sheet name="エンドポイント" sheetId="2" r:id="rId2"/>
     <sheet name="入力必須項目" sheetId="3" r:id="rId3"/>
+    <sheet name="各画面実装項目列挙" sheetId="4" r:id="rId4"/>
+    <sheet name="Python導入ライブラリ" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">エンドポイント!$C$2:$G$2</definedName>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="142">
   <si>
     <t>ON　UPDATE　CURRENT_TIMESTAMP</t>
     <phoneticPr fontId="1"/>
@@ -705,6 +707,50 @@
     <rPh sb="10" eb="13">
       <t>ムイミ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実装機能</t>
+    <rPh sb="0" eb="4">
+      <t>ジッソウキノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/home</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その日のタスク一覧表示</t>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flask</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mashmallow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flask-JWT-Extended</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flask-SQLAlchemy?</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -843,7 +889,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -859,9 +905,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -869,9 +912,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
@@ -890,10 +930,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1246,7 +1283,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B3" t="s">
@@ -1264,7 +1301,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="5"/>
+      <c r="A4" s="13"/>
       <c r="B4" t="s">
         <v>47</v>
       </c>
@@ -1280,7 +1317,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="5"/>
+      <c r="A5" s="13"/>
       <c r="B5" t="s">
         <v>46</v>
       </c>
@@ -1296,7 +1333,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="5"/>
+      <c r="A6" s="13"/>
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -1312,7 +1349,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="5"/>
+      <c r="A7" s="13"/>
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -1331,7 +1368,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="13" t="s">
         <v>43</v>
       </c>
       <c r="B8" t="s">
@@ -1352,7 +1389,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="5"/>
+      <c r="A9" s="13"/>
       <c r="B9" t="s">
         <v>40</v>
       </c>
@@ -1368,7 +1405,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="5"/>
+      <c r="A10" s="13"/>
       <c r="B10" t="s">
         <v>38</v>
       </c>
@@ -1384,7 +1421,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="5"/>
+      <c r="A11" s="13"/>
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -1400,7 +1437,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="5"/>
+      <c r="A12" s="13"/>
       <c r="B12" t="s">
         <v>3</v>
       </c>
@@ -1419,7 +1456,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="13" t="s">
         <v>37</v>
       </c>
       <c r="B13" t="s">
@@ -1437,7 +1474,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="5"/>
+      <c r="A14" s="13"/>
       <c r="B14" t="s">
         <v>36</v>
       </c>
@@ -1456,7 +1493,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="5"/>
+      <c r="A15" s="13"/>
       <c r="B15" t="s">
         <v>35</v>
       </c>
@@ -1469,7 +1506,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="5"/>
+      <c r="A16" s="13"/>
       <c r="B16" t="s">
         <v>34</v>
       </c>
@@ -1485,7 +1522,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="5"/>
+      <c r="A17" s="13"/>
       <c r="B17" t="s">
         <v>32</v>
       </c>
@@ -1501,7 +1538,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="5"/>
+      <c r="A18" s="13"/>
       <c r="B18" t="s">
         <v>30</v>
       </c>
@@ -1517,7 +1554,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="5"/>
+      <c r="A19" s="13"/>
       <c r="B19" t="s">
         <v>29</v>
       </c>
@@ -1533,7 +1570,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="5"/>
+      <c r="A20" s="13"/>
       <c r="B20" t="s">
         <v>28</v>
       </c>
@@ -1549,7 +1586,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="5"/>
+      <c r="A21" s="13"/>
       <c r="B21" t="s">
         <v>27</v>
       </c>
@@ -1565,7 +1602,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="5"/>
+      <c r="A22" s="13"/>
       <c r="B22" t="s">
         <v>25</v>
       </c>
@@ -1581,7 +1618,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="5"/>
+      <c r="A23" s="13"/>
       <c r="B23" t="s">
         <v>23</v>
       </c>
@@ -1597,7 +1634,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24" s="5"/>
+      <c r="A24" s="13"/>
       <c r="B24" t="s">
         <v>4</v>
       </c>
@@ -1613,7 +1650,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A25" s="5"/>
+      <c r="A25" s="13"/>
       <c r="B25" t="s">
         <v>3</v>
       </c>
@@ -1632,7 +1669,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B26" t="s">
@@ -1650,14 +1687,14 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" s="5"/>
+      <c r="A27" s="13"/>
       <c r="B27" t="s">
         <v>19</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="13" t="s">
         <v>18</v>
       </c>
       <c r="F27" t="b">
@@ -1669,14 +1706,14 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" s="5"/>
+      <c r="A28" s="13"/>
       <c r="B28" t="s">
         <v>16</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="5"/>
+      <c r="D28" s="13"/>
       <c r="F28" t="b">
         <f>FALSE()</f>
         <v>0</v>
@@ -1686,7 +1723,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A29" s="5"/>
+      <c r="A29" s="13"/>
       <c r="B29" t="s">
         <v>4</v>
       </c>
@@ -1702,7 +1739,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A30" s="5"/>
+      <c r="A30" s="13"/>
       <c r="B30" t="s">
         <v>3</v>
       </c>
@@ -1721,7 +1758,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B31" t="s">
@@ -1739,7 +1776,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A32" s="5"/>
+      <c r="A32" s="13"/>
       <c r="B32" t="s">
         <v>11</v>
       </c>
@@ -1758,7 +1795,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A33" s="5"/>
+      <c r="A33" s="13"/>
       <c r="B33" t="s">
         <v>7</v>
       </c>
@@ -1772,7 +1809,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A34" s="5"/>
+      <c r="A34" s="13"/>
       <c r="B34" t="s">
         <v>6</v>
       </c>
@@ -1785,7 +1822,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A35" s="5"/>
+      <c r="A35" s="13"/>
       <c r="B35" t="s">
         <v>4</v>
       </c>
@@ -1801,7 +1838,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A36" s="5"/>
+      <c r="A36" s="13"/>
       <c r="B36" t="s">
         <v>3</v>
       </c>
@@ -1838,7 +1875,7 @@
   <dimension ref="B2:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2139,10 +2176,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471F7AC9-62E6-4057-A388-6B3D7CE3DF00}">
-  <dimension ref="B1:I23"/>
+  <dimension ref="B2:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2152,116 +2189,107 @@
     <col min="8" max="8" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-    </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" t="s">
         <v>105</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" t="s">
         <v>105</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" t="s">
         <v>105</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="8" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" t="s">
         <v>105</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" t="s">
         <v>105</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" t="s">
         <v>105</v>
       </c>
-      <c r="I4" s="10" t="b">
+      <c r="I4" s="8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="I5" s="13" t="b">
+      <c r="I5" s="11" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2271,232 +2299,286 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" t="s">
         <v>119</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9" t="s">
+      <c r="E9" t="s">
         <v>128</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" t="s">
         <v>120</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" t="s">
         <v>127</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" t="s">
         <v>126</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9">
+      <c r="F11">
         <v>3</v>
       </c>
-      <c r="G11" s="10"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9">
+      <c r="E12">
         <v>20</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10">
+      <c r="G13" s="8">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" t="s">
         <v>126</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="10">
+      <c r="G14" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="8"/>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" t="s">
         <v>122</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" t="s">
         <v>126</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="10">
+      <c r="G15" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12">
+      <c r="E16" s="10"/>
+      <c r="F16" s="10">
         <v>2</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="6" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9" t="s">
+      <c r="D19" t="s">
         <v>131</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9" t="s">
+      <c r="F19" t="s">
         <v>130</v>
       </c>
-      <c r="G19" s="10"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" t="s">
         <v>130</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" t="s">
         <v>131</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9" t="s">
+      <c r="F20" t="s">
         <v>130</v>
       </c>
-      <c r="G20" s="10"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" t="s">
         <v>130</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" t="s">
         <v>130</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" t="s">
         <v>130</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" t="s">
         <v>130</v>
       </c>
-      <c r="G21" s="10"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12" t="s">
+      <c r="C22" s="10"/>
+      <c r="D22" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="G22" s="13"/>
+      <c r="G22" s="11"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="7" t="s">
         <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1AF2C1-6071-42F8-BA04-227F274A87E6}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="23.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A75C423-254A-4A79-835E-A16C8561789C}">
+  <dimension ref="A2:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/documents/設計書.xlsx
+++ b/documents/設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\project\portfolio\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BF3BA6-FE78-490B-8854-26B00B87F3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C148C1-725D-44ED-8161-ECD6E7FF22CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{F5AA50B3-5D52-4480-8308-869CA1560B05}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F5AA50B3-5D52-4480-8308-869CA1560B05}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブルパラメータ表" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="152">
   <si>
     <t>ON　UPDATE　CURRENT_TIMESTAMP</t>
     <phoneticPr fontId="1"/>
@@ -298,15 +298,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/password</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>auth.domain.com</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/email</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -751,6 +743,75 @@
   </si>
   <si>
     <t>Flask-SQLAlchemy?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/logout</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GET?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T/F？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/user</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>済</t>
+    <rPh sb="0" eb="1">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー名・表示名設定</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="11">
+      <t>ヒョウジメイセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー名登録可否チェック</t>
+    <rPh sb="4" eb="9">
+      <t>メイトウロクカヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/user/deactivate(仮称)</t>
+    <rPh sb="17" eb="19">
+      <t>カショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>users?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント利用停止</t>
+    <rPh sb="5" eb="9">
+      <t>リヨウテイシ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1872,10 +1933,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8210D646-3261-426B-8E48-CF28A3D12B21}">
-  <dimension ref="B2:I15"/>
+  <dimension ref="A2:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1886,281 +1947,342 @@
     <col min="7" max="7" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>145</v>
+      </c>
       <c r="B2" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="H3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="D5" t="s">
         <v>57</v>
       </c>
       <c r="E5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F5" t="s">
+      <c r="D8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s">
         <v>69</v>
       </c>
-      <c r="G5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" t="s">
-        <v>71</v>
-      </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>146</v>
+      </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
         <v>56</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>146</v>
+      </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
         <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>146</v>
+      </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>140</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" t="s">
         <v>43</v>
       </c>
-      <c r="G13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>146</v>
+      </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="D15" t="s">
         <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>60</v>
+      </c>
+      <c r="I15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" t="s">
+        <v>150</v>
+      </c>
+      <c r="I16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" t="s">
+        <v>143</v>
+      </c>
+      <c r="I17" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2191,77 +2313,77 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B2" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>102</v>
-      </c>
       <c r="I2" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B3" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>105</v>
-      </c>
-      <c r="D3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G3" t="s">
-        <v>105</v>
-      </c>
-      <c r="H3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" t="s">
         <v>103</v>
       </c>
-      <c r="E4" t="s">
-        <v>105</v>
-      </c>
       <c r="F4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I4" s="8" t="b">
         <v>0</v>
@@ -2269,25 +2391,25 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>105</v>
-      </c>
       <c r="F5" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I5" s="11" t="b">
         <v>1</v>
@@ -2295,62 +2417,62 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>118</v>
-      </c>
       <c r="G8" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B10" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G10" s="8"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B11" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -2359,10 +2481,10 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B12" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E12">
         <v>20</v>
@@ -2371,10 +2493,10 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B13" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G13" s="8">
         <v>30</v>
@@ -2382,13 +2504,13 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B14" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G14" s="8">
         <v>2</v>
@@ -2397,10 +2519,10 @@
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B15" s="7"/>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G15" s="8">
         <v>2</v>
@@ -2408,13 +2530,13 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B16" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>124</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>126</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10">
@@ -2426,88 +2548,88 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>118</v>
-      </c>
       <c r="F18" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G19" s="8"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G20" s="8"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C21" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D21" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E21" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F21" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G21" s="8"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G22" s="11"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2531,18 +2653,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2555,7 +2677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A75C423-254A-4A79-835E-A16C8561789C}">
   <dimension ref="A2:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -2563,22 +2685,22 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/documents/設計書.xlsx
+++ b/documents/設計書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\project\portfolio\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C148C1-725D-44ED-8161-ECD6E7FF22CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068C84A2-1868-4FC1-ACE3-AC3051F5200C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F5AA50B3-5D52-4480-8308-869CA1560B05}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="153">
   <si>
     <t>ON　UPDATE　CURRENT_TIMESTAMP</t>
     <phoneticPr fontId="1"/>
@@ -812,6 +812,10 @@
     <rPh sb="5" eb="9">
       <t>リヨウテイシ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/token/refresh</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1933,10 +1937,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8210D646-3261-426B-8E48-CF28A3D12B21}">
-  <dimension ref="A2:I17"/>
+  <dimension ref="A2:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1977,6 +1981,9 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>146</v>
+      </c>
       <c r="B3" t="s">
         <v>71</v>
       </c>
@@ -2000,6 +2007,9 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>146</v>
+      </c>
       <c r="B4" t="s">
         <v>71</v>
       </c>
@@ -2020,6 +2030,9 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>146</v>
+      </c>
       <c r="B5" t="s">
         <v>71</v>
       </c>
@@ -2040,6 +2053,9 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>146</v>
+      </c>
       <c r="B6" t="s">
         <v>71</v>
       </c>
@@ -2060,6 +2076,9 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>146</v>
+      </c>
       <c r="B7" t="s">
         <v>71</v>
       </c>
@@ -2080,6 +2099,9 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>146</v>
+      </c>
       <c r="B8" t="s">
         <v>71</v>
       </c>
@@ -2100,6 +2122,9 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>146</v>
+      </c>
       <c r="B9" t="s">
         <v>71</v>
       </c>
@@ -2283,6 +2308,17 @@
       </c>
       <c r="I17" t="s">
         <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2643,7 +2679,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/documents/設計書.xlsx
+++ b/documents/設計書.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\project\portfolio\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068C84A2-1868-4FC1-ACE3-AC3051F5200C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD462B60-474D-4075-973C-15F88C3DC919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F5AA50B3-5D52-4480-8308-869CA1560B05}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{F5AA50B3-5D52-4480-8308-869CA1560B05}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブルパラメータ表" sheetId="1" r:id="rId1"/>
     <sheet name="エンドポイント" sheetId="2" r:id="rId2"/>
-    <sheet name="入力必須項目" sheetId="3" r:id="rId3"/>
-    <sheet name="各画面実装項目列挙" sheetId="4" r:id="rId4"/>
-    <sheet name="Python導入ライブラリ" sheetId="5" r:id="rId5"/>
+    <sheet name="環境変数" sheetId="6" r:id="rId3"/>
+    <sheet name="入力必須項目" sheetId="3" r:id="rId4"/>
+    <sheet name="各画面実装項目列挙" sheetId="4" r:id="rId5"/>
+    <sheet name="Python導入ライブラリ" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">エンドポイント!$C$2:$G$2</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="166">
   <si>
     <t>ON　UPDATE　CURRENT_TIMESTAMP</t>
     <phoneticPr fontId="1"/>
@@ -816,6 +817,67 @@
   </si>
   <si>
     <t>/token/refresh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>環境変数名</t>
+    <rPh sb="0" eb="5">
+      <t>カンキョウヘンスウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サービス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記述場所</t>
+    <rPh sb="0" eb="2">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB_ACCOUNT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB_PASSWORD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB_NAME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB_SERVICE_NAME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SQL_ALCHEMY_ECHO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JWT_ALGORITHM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JWT_COOKIE_SECURE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JWT_PUBLIC_KEY_PATH</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JWT_PRIVATE_KEY_PATH</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tascalsslpass</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1939,7 +2001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8210D646-3261-426B-8E48-CF28A3D12B21}">
   <dimension ref="A2:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -2333,6 +2395,86 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974A31D1-72AA-4BB1-9BD0-AEDE0D583C2D}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471F7AC9-62E6-4057-A388-6B3D7CE3DF00}">
   <dimension ref="B2:I23"/>
   <sheetViews>
@@ -2674,7 +2816,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1AF2C1-6071-42F8-BA04-227F274A87E6}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2709,7 +2851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A75C423-254A-4A79-835E-A16C8561789C}">
   <dimension ref="A2:A5"/>
   <sheetViews>
